--- a/Doc/xlsx/Animation.xlsx
+++ b/Doc/xlsx/Animation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="25095" windowHeight="12150"/>
+    <workbookView windowWidth="25095" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>title</t>
   </si>
@@ -42,56 +42,18 @@
     <t>""</t>
   </si>
   <si>
-    <t>Jedi2</t>
-  </si>
-  <si>
-    <t>res/anim/Jedi2/Jedi2.ExportJson</t>
-  </si>
-  <si>
-    <t>Tkdo</t>
-  </si>
-  <si>
-    <t>res/anim/Tkdo/Tkdo.ExportJson</t>
-  </si>
-  <si>
-    <t>Militia</t>
-  </si>
-  <si>
-    <t>res/anim/Militia/Militia.ExportJson</t>
-  </si>
-  <si>
-    <t>Footman</t>
-  </si>
-  <si>
-    <t>res/anim/Footman/Footman.ExportJson</t>
-  </si>
-  <si>
-    <t>Knight</t>
-  </si>
-  <si>
-    <t>res/anim/Knight/Knight.ExportJson</t>
-  </si>
-  <si>
-    <t>HolyKnight</t>
-  </si>
-  <si>
-    <t>res/anim/HolyKnight/HolyKnight.ExportJson</t>
-  </si>
-  <si>
-    <t>Barbarian</t>
-  </si>
-  <si>
-    <t>res/anim/Barbarian/Barbarian.ExportJson</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>"</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>str</t>
@@ -104,14 +66,133 @@
       </rPr>
       <t>"</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jedi2</t>
+  </si>
+  <si>
+    <t>res/anim/Jedi2/Jedi2.ExportJson</t>
+  </si>
+  <si>
+    <t>Tkdo</t>
+  </si>
+  <si>
+    <t>res/anim/Tkdo/Tkdo.ExportJson</t>
+  </si>
+  <si>
+    <t>Militia</t>
+  </si>
+  <si>
+    <t>res/anim/Militia/Militia.ExportJson</t>
+  </si>
+  <si>
+    <t>Footman</t>
+  </si>
+  <si>
+    <t>res/anim/Footman/Footman.ExportJson</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>res/anim/Knight/Knight.ExportJson</t>
+  </si>
+  <si>
+    <t>HolyKnight</t>
+  </si>
+  <si>
+    <t>res/anim/HolyKnight/HolyKnight.ExportJson</t>
+  </si>
+  <si>
+    <t>Barbarian</t>
+  </si>
+  <si>
+    <t>res/anim/Barbarian/Barbarian.ExportJson</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>res/anim/Goblin/Goblin.ExportJson</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>res/anim/Orc/Orc.ExportJson</t>
+  </si>
+  <si>
+    <t>Sahman</t>
+  </si>
+  <si>
+    <t>res/anim/Sahman/Sahman.ExportJson</t>
+  </si>
+  <si>
+    <t>Ogre</t>
+  </si>
+  <si>
+    <t>res/anim/Ogre/Ogre.ExportJson</t>
+  </si>
+  <si>
+    <t>Bandit</t>
+  </si>
+  <si>
+    <t>res/anim/Bandit/Bandit.ExportJson</t>
+  </si>
+  <si>
+    <t>Brigand</t>
+  </si>
+  <si>
+    <t>res/anim/Brigand/Brigand.ExportJson</t>
+  </si>
+  <si>
+    <t>Wulf</t>
+  </si>
+  <si>
+    <t>res/anim/Wulf/Wulf.ExportJson</t>
+  </si>
+  <si>
+    <t>Juggernaut</t>
+  </si>
+  <si>
+    <t>res/anim/Juggernaut/Juggernaut.ExportJson</t>
+  </si>
+  <si>
+    <t>NoxiousCreeeper</t>
+  </si>
+  <si>
+    <t>res/anim/NoxiousCreeeper/NoxiousCreeeper.ExportJson</t>
+  </si>
+  <si>
+    <t>ShadowArcher</t>
+  </si>
+  <si>
+    <t>res/anim/ShadowArcher/ShadowArcher.ExportJson</t>
+  </si>
+  <si>
+    <t>NoxiousSon</t>
+  </si>
+  <si>
+    <t>res/anim/NoxiousSon/NoxiousSon.ExportJson</t>
+  </si>
+  <si>
+    <t>BigDevil</t>
+  </si>
+  <si>
+    <t>res/anim/BigDevil/BigDevil.ExportJson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -121,32 +202,361 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -154,13 +564,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,85 +820,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -258,7 +890,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -507,21 +1139,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
     <col min="3" max="3" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +1165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +1176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -554,7 +1187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -565,107 +1198,222 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+      <c r="C25" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+      <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
--- a/Doc/xlsx/Animation.xlsx
+++ b/Doc/xlsx/Animation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>title</t>
   </si>
@@ -24,12 +24,18 @@
     <t>id</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>filePath</t>
   </si>
   <si>
     <t>注释</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>动画名</t>
   </si>
   <si>
@@ -39,33 +45,19 @@
     <t>string</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>""</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>str</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"</t>
-    </r>
+    <t>Jedi</t>
+  </si>
+  <si>
+    <t>res/anim/Jedi/Jedi.ExportJson</t>
+  </si>
+  <si>
+    <t>士兵1xxx</t>
   </si>
   <si>
     <t>Jedi2</t>
@@ -110,6 +102,9 @@
     <t>res/anim/Barbarian/Barbarian.ExportJson</t>
   </si>
   <si>
+    <t>怪物2xxx</t>
+  </si>
+  <si>
     <t>Goblin</t>
   </si>
   <si>
@@ -180,6 +175,36 @@
   </si>
   <si>
     <t>res/anim/BigDevil/BigDevil.ExportJson</t>
+  </si>
+  <si>
+    <t>子弹3xxx</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>res/anim/Arrow/Arrow.ExportJson</t>
+  </si>
+  <si>
+    <t>TrackingBomb</t>
+  </si>
+  <si>
+    <t>res/anim/TrackingBomb/TrackingBomb.ExportJson</t>
+  </si>
+  <si>
+    <t>SpiderEgg</t>
+  </si>
+  <si>
+    <t>res/anim/SpiderEgg/SpiderEgg.ExportJson</t>
+  </si>
+  <si>
+    <t>界面4xxx</t>
+  </si>
+  <si>
+    <t>Loading_King</t>
+  </si>
+  <si>
+    <t>res/anim/Loading_King/Loading_King.ExportJson</t>
   </si>
 </sst>
 </file>
@@ -187,12 +212,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -206,18 +231,67 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -227,14 +301,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,107 +361,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,25 +384,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,24 +528,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -431,13 +540,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,109 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,26 +575,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -600,17 +593,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +613,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,168 +664,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1141,31 +1151,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="42.375" customWidth="1"/>
+    <col min="1" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,206 +1188,327 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6">
+        <v>1001</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
         <v>11</v>
       </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1002</v>
+      </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>1003</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>1004</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>1005</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>1006</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>1007</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>1008</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="3" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="3" t="s">
+      <c r="B14">
+        <v>2001</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="3" t="s">
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>2002</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="3" t="s">
+    <row r="16" spans="2:4">
+      <c r="B16">
+        <v>2003</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="3" t="s">
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>2004</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="3" t="s">
+    <row r="18" spans="2:4">
+      <c r="B18">
+        <v>2005</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="3" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19">
+        <v>2006</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="3" t="s">
+    <row r="20" spans="2:4">
+      <c r="B20">
+        <v>2007</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="3" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <v>2008</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="3" t="s">
+    <row r="22" spans="2:4">
+      <c r="B22">
+        <v>2009</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="4" t="s">
-        <v>15</v>
+    <row r="23" spans="2:4">
+      <c r="B23">
+        <v>2010</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24">
+        <v>2011</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25">
+        <v>2012</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <v>3001</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27">
+        <v>3002</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28">
+        <v>3003</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>4001</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/xlsx/Animation.xlsx
+++ b/Doc/xlsx/Animation.xlsx
@@ -54,7 +54,7 @@
     <t>Jedi</t>
   </si>
   <si>
-    <t>res/anim/Jedi/Jedi.ExportJson</t>
+    <t>res/anim/Jedi.ExportJson</t>
   </si>
   <si>
     <t>士兵1xxx</t>
@@ -63,43 +63,43 @@
     <t>Jedi2</t>
   </si>
   <si>
-    <t>res/anim/Jedi2/Jedi2.ExportJson</t>
+    <t>res/anim/Jedi2.ExportJson</t>
   </si>
   <si>
     <t>Tkdo</t>
   </si>
   <si>
-    <t>res/anim/Tkdo/Tkdo.ExportJson</t>
+    <t>res/anim/Tkdo.ExportJson</t>
   </si>
   <si>
     <t>Militia</t>
   </si>
   <si>
-    <t>res/anim/Militia/Militia.ExportJson</t>
+    <t>res/anim/Militia.ExportJson</t>
   </si>
   <si>
     <t>Footman</t>
   </si>
   <si>
-    <t>res/anim/Footman/Footman.ExportJson</t>
+    <t>res/anim/Footman.ExportJson</t>
   </si>
   <si>
     <t>Knight</t>
   </si>
   <si>
-    <t>res/anim/Knight/Knight.ExportJson</t>
+    <t>res/anim/Knight.ExportJson</t>
   </si>
   <si>
     <t>HolyKnight</t>
   </si>
   <si>
-    <t>res/anim/HolyKnight/HolyKnight.ExportJson</t>
+    <t>res/anim/HolyKnight.ExportJson</t>
   </si>
   <si>
     <t>Barbarian</t>
   </si>
   <si>
-    <t>res/anim/Barbarian/Barbarian.ExportJson</t>
+    <t>res/anim/Barbarian.ExportJson</t>
   </si>
   <si>
     <t>怪物2xxx</t>
@@ -108,73 +108,73 @@
     <t>Goblin</t>
   </si>
   <si>
-    <t>res/anim/Goblin/Goblin.ExportJson</t>
+    <t>res/anim/Goblin.ExportJson</t>
   </si>
   <si>
     <t>Orc</t>
   </si>
   <si>
-    <t>res/anim/Orc/Orc.ExportJson</t>
+    <t>res/anim/Orc.ExportJson</t>
   </si>
   <si>
     <t>Sahman</t>
   </si>
   <si>
-    <t>res/anim/Sahman/Sahman.ExportJson</t>
+    <t>res/anim/Sahman.ExportJson</t>
   </si>
   <si>
     <t>Ogre</t>
   </si>
   <si>
-    <t>res/anim/Ogre/Ogre.ExportJson</t>
+    <t>res/anim/Ogre.ExportJson</t>
   </si>
   <si>
     <t>Bandit</t>
   </si>
   <si>
-    <t>res/anim/Bandit/Bandit.ExportJson</t>
+    <t>res/anim/Bandit.ExportJson</t>
   </si>
   <si>
     <t>Brigand</t>
   </si>
   <si>
-    <t>res/anim/Brigand/Brigand.ExportJson</t>
+    <t>res/anim/Brigand.ExportJson</t>
   </si>
   <si>
     <t>Wulf</t>
   </si>
   <si>
-    <t>res/anim/Wulf/Wulf.ExportJson</t>
+    <t>res/anim/Wulf.ExportJson</t>
   </si>
   <si>
     <t>Juggernaut</t>
   </si>
   <si>
-    <t>res/anim/Juggernaut/Juggernaut.ExportJson</t>
+    <t>res/anim/Juggernaut.ExportJson</t>
   </si>
   <si>
     <t>NoxiousCreeeper</t>
   </si>
   <si>
-    <t>res/anim/NoxiousCreeeper/NoxiousCreeeper.ExportJson</t>
+    <t>res/anim/NoxiousCreeeper.ExportJson</t>
   </si>
   <si>
     <t>ShadowArcher</t>
   </si>
   <si>
-    <t>res/anim/ShadowArcher/ShadowArcher.ExportJson</t>
+    <t>res/anim/ShadowArcher.ExportJson</t>
   </si>
   <si>
     <t>NoxiousSon</t>
   </si>
   <si>
-    <t>res/anim/NoxiousSon/NoxiousSon.ExportJson</t>
+    <t>res/anim/NoxiousSon.ExportJson</t>
   </si>
   <si>
     <t>BigDevil</t>
   </si>
   <si>
-    <t>res/anim/BigDevil/BigDevil.ExportJson</t>
+    <t>res/anim/BigDevil.ExportJson</t>
   </si>
   <si>
     <t>子弹3xxx</t>
@@ -183,19 +183,19 @@
     <t>Arrow</t>
   </si>
   <si>
-    <t>res/anim/Arrow/Arrow.ExportJson</t>
+    <t>res/anim/Arrow.ExportJson</t>
   </si>
   <si>
     <t>TrackingBomb</t>
   </si>
   <si>
-    <t>res/anim/TrackingBomb/TrackingBomb.ExportJson</t>
+    <t>res/anim/TrackingBomb.ExportJson</t>
   </si>
   <si>
     <t>SpiderEgg</t>
   </si>
   <si>
-    <t>res/anim/SpiderEgg/SpiderEgg.ExportJson</t>
+    <t>res/anim/SpiderEgg.ExportJson</t>
   </si>
   <si>
     <t>界面4xxx</t>
@@ -204,7 +204,7 @@
     <t>Loading_King</t>
   </si>
   <si>
-    <t>res/anim/Loading_King/Loading_King.ExportJson</t>
+    <t>res/anim/Loading_King.ExportJson</t>
   </si>
 </sst>
 </file>
@@ -212,10 +212,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -232,6 +232,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -240,14 +247,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,25 +299,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,19 +322,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -337,41 +360,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -384,12 +384,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -402,7 +462,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,25 +486,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,127 +522,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,45 +575,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -636,16 +597,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,6 +617,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -675,6 +657,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -683,10 +683,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,133 +695,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,7 +1154,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
